--- a/indicadores bienestar 2014.xlsx
+++ b/indicadores bienestar 2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliowaissman/Documents/cursos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliowaissman/Documents/cursos/IA-Unison/github/tarea08-aprendizaje-no-supervisado/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -389,19 +389,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -417,32 +408,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,24 +420,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,152 +743,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AL45"/>
+  <dimension ref="A2:AM45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="5" customWidth="1"/>
-    <col min="7" max="9" width="28.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" style="5" customWidth="1"/>
-    <col min="11" max="15" width="23" style="5" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" style="5" customWidth="1"/>
-    <col min="17" max="19" width="16.5" style="5" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="16.5" style="5" customWidth="1"/>
-    <col min="24" max="24" width="19.1640625" style="5" customWidth="1"/>
-    <col min="25" max="26" width="18.83203125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="22.83203125" style="5" customWidth="1"/>
-    <col min="28" max="28" width="23" style="5" customWidth="1"/>
-    <col min="29" max="29" width="24.1640625" style="5" customWidth="1"/>
-    <col min="30" max="30" width="28.83203125" style="5" customWidth="1"/>
-    <col min="31" max="31" width="22.5" style="5" customWidth="1"/>
-    <col min="32" max="32" width="22.33203125" style="5" customWidth="1"/>
-    <col min="33" max="33" width="18.6640625" style="5" customWidth="1"/>
-    <col min="34" max="34" width="16.6640625" style="5" customWidth="1"/>
-    <col min="35" max="35" width="23.1640625" style="5" customWidth="1"/>
-    <col min="36" max="36" width="20.1640625" style="5" customWidth="1"/>
-    <col min="37" max="37" width="17.5" style="5" customWidth="1"/>
-    <col min="38" max="38" width="28.83203125" style="5" customWidth="1"/>
-    <col min="39" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="43.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="9" width="28.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" style="3" customWidth="1"/>
+    <col min="11" max="15" width="23" style="3" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" style="3" customWidth="1"/>
+    <col min="17" max="19" width="16.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.83203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="16.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="19.1640625" style="3" customWidth="1"/>
+    <col min="25" max="26" width="18.83203125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="22.83203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="23" style="3" customWidth="1"/>
+    <col min="29" max="29" width="24.1640625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="28.83203125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="22.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="22.33203125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="16.6640625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="23.1640625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="20.1640625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="17.5" style="3" customWidth="1"/>
+    <col min="38" max="38" width="28.83203125" style="3" customWidth="1"/>
+    <col min="39" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="21" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="15" t="s">
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="21" t="s">
+      <c r="R6" s="15"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="W6" s="15" t="s">
+      <c r="V6" s="16"/>
+      <c r="W6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="15" t="s">
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="15" t="s">
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="15" t="s">
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="15" t="s">
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AL6" s="24"/>
+      <c r="AL6" s="16"/>
     </row>
-    <row r="7" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:39" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -905,3941 +903,3977 @@
       <c r="I7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="T7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="V7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="Z7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" s="25" t="s">
+      <c r="AA7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AD7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" s="25" t="s">
+      <c r="AE7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AF7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AH7" s="19" t="s">
+      <c r="AH7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AI7" s="25" t="s">
+      <c r="AI7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AJ7" s="19" t="s">
+      <c r="AJ7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AK7" s="25" t="s">
+      <c r="AK7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AL7" s="19" t="s">
+      <c r="AL7" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="21">
         <v>84.5</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="22">
         <v>33.700000000000003</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="23">
         <v>88.8</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="24">
         <v>5.7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="25">
         <v>47.7</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="25">
         <v>5.05</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="25">
         <v>28.3</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="25">
         <v>53.7</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="26">
         <v>77.3</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="21">
         <v>75</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="22">
         <v>32.4</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="22">
         <v>38.200000000000003</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="22">
         <v>12.5</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="23">
         <v>34.6</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="27">
         <v>40.299999999999997</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="22">
         <v>12.9</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="23">
         <v>9.1</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="26">
         <v>8</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="27">
         <v>7.8</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="23">
         <v>28.2</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="27">
         <v>19.600000000000001</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="22">
         <v>52</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="22">
         <v>45.4</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="Z8" s="23">
         <v>28202</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AA8" s="27">
         <v>0.503</v>
       </c>
-      <c r="AB8" s="28">
+      <c r="AB8" s="22">
         <v>6692</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="22">
         <v>43.6</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AD8" s="23">
         <v>7.6</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AE8" s="27">
         <v>13.8</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="22">
         <v>57.29</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AG8" s="22">
         <v>3.9</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AH8" s="23">
         <v>59.7</v>
       </c>
-      <c r="AI8" s="26">
+      <c r="AI8" s="27">
         <v>11.5</v>
       </c>
-      <c r="AJ8" s="20">
+      <c r="AJ8" s="23">
         <v>67.5</v>
       </c>
-      <c r="AK8" s="26">
+      <c r="AK8" s="27">
         <v>1</v>
       </c>
-      <c r="AL8" s="20">
+      <c r="AL8" s="23">
         <v>71.599999999999994</v>
       </c>
+      <c r="AM8" s="28"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="21">
         <v>87.9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="22">
         <v>37.92</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="23">
         <v>98</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="24">
         <v>8.4</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="25">
         <v>37.200000000000003</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="25">
         <v>5.6</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="25">
         <v>34.700000000000003</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="25">
         <v>63.2</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="26">
         <v>78.099999999999994</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="21">
         <v>75.900000000000006</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="22">
         <v>8</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="22">
         <v>31</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="22">
         <v>25.7</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="23">
         <v>25.8</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="27">
         <v>42.5</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="22">
         <v>12.1</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="23">
         <v>9.6999999999999993</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="26">
         <v>7.7</v>
       </c>
-      <c r="U9" s="26">
+      <c r="U9" s="27">
         <v>7.3</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="23">
         <v>35.1</v>
       </c>
-      <c r="W9" s="26">
+      <c r="W9" s="27">
         <v>3.5</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="22">
         <v>68.599999999999994</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="22">
         <v>38.4</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="Z9" s="23">
         <v>30721</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AA9" s="27">
         <v>0.48599999999999999</v>
       </c>
-      <c r="AB9" s="28">
+      <c r="AB9" s="22">
         <v>7642</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AC9" s="22">
         <v>28.2</v>
       </c>
-      <c r="AD9" s="20">
+      <c r="AD9" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AE9" s="26">
+      <c r="AE9" s="27">
         <v>10.5</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="22">
         <v>43.91</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AG9" s="22">
         <v>4</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AH9" s="23">
         <v>60</v>
       </c>
-      <c r="AI9" s="26">
+      <c r="AI9" s="27">
         <v>9.1</v>
       </c>
-      <c r="AJ9" s="20">
+      <c r="AJ9" s="23">
         <v>100</v>
       </c>
-      <c r="AK9" s="26">
+      <c r="AK9" s="27">
         <v>1</v>
       </c>
-      <c r="AL9" s="20">
+      <c r="AL9" s="23">
         <v>94.9</v>
       </c>
+      <c r="AM9" s="28"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="21">
         <v>80.599999999999994</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="22">
         <v>51.46</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="23">
         <v>94.7</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="25">
         <v>30.9</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="25">
         <v>4.05</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="25">
         <v>38.1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="25">
         <v>62.7</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="26">
         <v>84.7</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="21">
         <v>74.2</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="22">
         <v>8.5</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="22">
         <v>39.5</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="22">
         <v>42.3</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="22">
         <v>13.8</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="23">
         <v>32</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="27">
         <v>44.8</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="22">
         <v>19.3</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="23">
         <v>9.6999999999999993</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U10" s="26">
+      <c r="U10" s="27">
         <v>8</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="23">
         <v>26.9</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="27">
         <v>32.200000000000003</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="22">
         <v>45.6</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="22">
         <v>42.9</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="Z10" s="23">
         <v>30786</v>
       </c>
-      <c r="AA10" s="26">
+      <c r="AA10" s="27">
         <v>0.434</v>
       </c>
-      <c r="AB10" s="28">
+      <c r="AB10" s="22">
         <v>8682</v>
       </c>
-      <c r="AC10" s="12">
+      <c r="AC10" s="22">
         <v>22.2</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AD10" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE10" s="26">
+      <c r="AE10" s="27">
         <v>7</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="22">
         <v>39.909999999999997</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AG10" s="22">
         <v>2.6</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AH10" s="23">
         <v>61.4</v>
       </c>
-      <c r="AI10" s="26">
+      <c r="AI10" s="27">
         <v>6.8</v>
       </c>
-      <c r="AJ10" s="20">
+      <c r="AJ10" s="23">
         <v>95.7</v>
       </c>
-      <c r="AK10" s="26">
+      <c r="AK10" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL10" s="20">
+      <c r="AL10" s="23">
         <v>49.5</v>
       </c>
+      <c r="AM10" s="28"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="21">
         <v>84.9</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="22">
         <v>43.85</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="23">
         <v>91.6</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="25">
         <v>52.6</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="25">
         <v>5.44</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="25">
         <v>37.200000000000003</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="25">
         <v>66.900000000000006</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="26">
         <v>85</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="21">
         <v>76.2</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="22">
         <v>8.4</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="22">
         <v>43.6</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="22">
         <v>32.1</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="22">
         <v>11.2</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="23">
         <v>24.3</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="27">
         <v>48.4</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="22">
         <v>11.7</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="23">
         <v>9.8000000000000007</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U11" s="26">
+      <c r="U11" s="27">
         <v>8</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="23">
         <v>24.9</v>
       </c>
-      <c r="W11" s="26">
+      <c r="W11" s="27">
         <v>29.6</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="22">
         <v>56.9</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="22">
         <v>30.3</v>
       </c>
-      <c r="Z11" s="27">
+      <c r="Z11" s="23">
         <v>24212</v>
       </c>
-      <c r="AA11" s="26">
+      <c r="AA11" s="27">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AB11" s="28">
+      <c r="AB11" s="22">
         <v>8279</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC11" s="22">
         <v>22.1</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AD11" s="23">
         <v>1.6</v>
       </c>
-      <c r="AE11" s="26">
+      <c r="AE11" s="27">
         <v>6.3</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="22">
         <v>39.049999999999997</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG11" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AH11" s="20">
+      <c r="AH11" s="23">
         <v>66.099999999999994</v>
       </c>
-      <c r="AI11" s="26">
+      <c r="AI11" s="27">
         <v>6.1</v>
       </c>
-      <c r="AJ11" s="20">
+      <c r="AJ11" s="23">
         <v>80.5</v>
       </c>
-      <c r="AK11" s="26">
+      <c r="AK11" s="27">
         <v>1</v>
       </c>
-      <c r="AL11" s="20">
+      <c r="AL11" s="23">
         <v>74.8</v>
       </c>
+      <c r="AM11" s="28"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="21">
         <v>89.3</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="22">
         <v>27.1</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="23">
         <v>89.8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="24">
         <v>11.2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="25">
         <v>61.2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="25">
         <v>8.1199999999999992</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="25">
         <v>32.700000000000003</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="25">
         <v>63.5</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="26">
         <v>73.5</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="21">
         <v>75.400000000000006</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="22">
         <v>7.9</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="22">
         <v>43.3</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="22">
         <v>65.400000000000006</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="22">
         <v>15.5</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="23">
         <v>46.5</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="27">
         <v>40.6</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="22">
         <v>15</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="23">
         <v>9.1</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="26">
         <v>7.8</v>
       </c>
-      <c r="U12" s="26">
+      <c r="U12" s="27">
         <v>7.6</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="23">
         <v>30.9</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12" s="27">
         <v>10.1</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="22">
         <v>57.2</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="22">
         <v>37.4</v>
       </c>
-      <c r="Z12" s="27">
+      <c r="Z12" s="23">
         <v>19469</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AA12" s="27">
         <v>0.5</v>
       </c>
-      <c r="AB12" s="28">
+      <c r="AB12" s="22">
         <v>7361</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC12" s="22">
         <v>43.8</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AD12" s="23">
         <v>6.7</v>
       </c>
-      <c r="AE12" s="26">
+      <c r="AE12" s="27">
         <v>17.7</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="22">
         <v>62.08</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG12" s="22">
         <v>3.7</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="AH12" s="23">
         <v>61</v>
       </c>
-      <c r="AI12" s="26">
+      <c r="AI12" s="27">
         <v>4.2</v>
       </c>
-      <c r="AJ12" s="20">
+      <c r="AJ12" s="23">
         <v>44.9</v>
       </c>
-      <c r="AK12" s="26">
+      <c r="AK12" s="27">
         <v>0.8</v>
       </c>
-      <c r="AL12" s="20">
+      <c r="AL12" s="23">
         <v>52.7</v>
       </c>
+      <c r="AM12" s="28"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="21">
         <v>87.2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="22">
         <v>34.56</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="23">
         <v>96</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="24">
         <v>6.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="25">
         <v>45</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="25">
         <v>7.62</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="25">
         <v>34.299999999999997</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="25">
         <v>59.2</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="26">
         <v>81.400000000000006</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="21">
         <v>76</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="22">
         <v>37.1</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="22">
         <v>27</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="22">
         <v>12.3</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="23">
         <v>28.3</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="27">
         <v>42.9</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="22">
         <v>19.100000000000001</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="23">
         <v>9.8000000000000007</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="26">
         <v>8</v>
       </c>
-      <c r="U13" s="26">
+      <c r="U13" s="27">
         <v>7.8</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="23">
         <v>26.3</v>
       </c>
-      <c r="W13" s="26">
+      <c r="W13" s="27">
         <v>8.5</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="22">
         <v>60</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="22">
         <v>29.1</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="Z13" s="23">
         <v>21501</v>
       </c>
-      <c r="AA13" s="26">
+      <c r="AA13" s="27">
         <v>0.503</v>
       </c>
-      <c r="AB13" s="28">
+      <c r="AB13" s="22">
         <v>8069</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC13" s="22">
         <v>24.8</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AD13" s="23">
         <v>1.7</v>
       </c>
-      <c r="AE13" s="26">
+      <c r="AE13" s="27">
         <v>9.5</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="22">
         <v>37.44</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH13" s="20">
+      <c r="AH13" s="23">
         <v>61.9</v>
       </c>
-      <c r="AI13" s="26">
+      <c r="AI13" s="27">
         <v>8.4</v>
       </c>
-      <c r="AJ13" s="20">
+      <c r="AJ13" s="23">
         <v>72</v>
       </c>
-      <c r="AK13" s="26">
+      <c r="AK13" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL13" s="20">
+      <c r="AL13" s="23">
         <v>77.8</v>
       </c>
+      <c r="AM13" s="28"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="21">
         <v>88.1</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="22">
         <v>45.16</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="23">
         <v>98.3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="24">
         <v>13</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="25">
         <v>60.2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="25">
         <v>8.76</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="25">
         <v>37.700000000000003</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="25">
         <v>61.6</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="26">
         <v>79.599999999999994</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="21">
         <v>76.099999999999994</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="22">
         <v>8.1</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="22">
         <v>36.700000000000003</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="22">
         <v>22.5</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="22">
         <v>9.9</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="23">
         <v>22.3</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="27">
         <v>43.7</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="22">
         <v>10.8</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="23">
         <v>9.5</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="26">
         <v>7.8</v>
       </c>
-      <c r="U14" s="26">
+      <c r="U14" s="27">
         <v>7.6</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="23">
         <v>28.6</v>
       </c>
-      <c r="W14" s="26">
+      <c r="W14" s="27">
         <v>82.4</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="22">
         <v>62.2</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="22">
         <v>45.2</v>
       </c>
-      <c r="Z14" s="27">
+      <c r="Z14" s="23">
         <v>24244</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AA14" s="27">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AB14" s="28">
+      <c r="AB14" s="22">
         <v>7703</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AC14" s="22">
         <v>33.6</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AD14" s="23">
         <v>2.6</v>
       </c>
-      <c r="AE14" s="26">
+      <c r="AE14" s="27">
         <v>9.4</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="22">
         <v>53.06</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AH14" s="20">
+      <c r="AH14" s="23">
         <v>66.900000000000006</v>
       </c>
-      <c r="AI14" s="26">
+      <c r="AI14" s="27">
         <v>9.4</v>
       </c>
-      <c r="AJ14" s="20">
+      <c r="AJ14" s="23">
         <v>51.1</v>
       </c>
-      <c r="AK14" s="26">
+      <c r="AK14" s="27">
         <v>1</v>
       </c>
-      <c r="AL14" s="20">
+      <c r="AL14" s="23">
         <v>70.8</v>
       </c>
+      <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="21">
         <v>85</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="22">
         <v>9.4700000000000006</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="23">
         <v>77.8</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="24">
         <v>10.8</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="25">
         <v>46.3</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="25">
         <v>13.96</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="25">
         <v>32.799999999999997</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="25">
         <v>63.5</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="26">
         <v>77.8</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="21">
         <v>73</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="22">
         <v>8.1</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="22">
         <v>25.6</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="22">
         <v>54.8</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="22">
         <v>13.5</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="23">
         <v>68.5</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="27">
         <v>28.1</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="22">
         <v>17.2</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="23">
         <v>7.2</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="26">
         <v>7.9</v>
       </c>
-      <c r="U15" s="26">
+      <c r="U15" s="27">
         <v>7.9</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="23">
         <v>25</v>
       </c>
-      <c r="W15" s="26">
+      <c r="W15" s="27">
         <v>10.4</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="22">
         <v>53.6</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="22">
         <v>34.4</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="Z15" s="23">
         <v>14347</v>
       </c>
-      <c r="AA15" s="26">
+      <c r="AA15" s="27">
         <v>0.51700000000000002</v>
       </c>
-      <c r="AB15" s="28">
+      <c r="AB15" s="22">
         <v>3683</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AC15" s="22">
         <v>77.099999999999994</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AD15" s="23">
         <v>28.1</v>
       </c>
-      <c r="AE15" s="26">
+      <c r="AE15" s="27">
         <v>33.4</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="22">
         <v>79.349999999999994</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AG15" s="22">
         <v>3.1</v>
       </c>
-      <c r="AH15" s="20">
+      <c r="AH15" s="23">
         <v>55.7</v>
       </c>
-      <c r="AI15" s="26">
+      <c r="AI15" s="27">
         <v>6.9</v>
       </c>
-      <c r="AJ15" s="20">
+      <c r="AJ15" s="23">
         <v>29</v>
       </c>
-      <c r="AK15" s="26">
+      <c r="AK15" s="27">
         <v>0.7</v>
       </c>
-      <c r="AL15" s="20">
+      <c r="AL15" s="23">
         <v>29.8</v>
       </c>
+      <c r="AM15" s="28"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="21">
         <v>87.8</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="22">
         <v>42.89</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="23">
         <v>94.7</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="24">
         <v>3.2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="25">
         <v>32.6</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="25">
         <v>5.09</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="25">
         <v>31.1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="25">
         <v>58.7</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="26">
         <v>80.099999999999994</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="21">
         <v>73.5</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="22">
         <v>8.4</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="22">
         <v>32.799999999999997</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="22">
         <v>59.8</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="22">
         <v>13.6</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="23">
         <v>43.1</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="27">
         <v>40.299999999999997</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="22">
         <v>17.2</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="23">
         <v>9.4</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U16" s="26">
+      <c r="U16" s="27">
         <v>8.3000000000000007</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="23">
         <v>20.5</v>
       </c>
-      <c r="W16" s="26">
+      <c r="W16" s="27">
         <v>46.9</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16" s="22">
         <v>52.4</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="22">
         <v>28.2</v>
       </c>
-      <c r="Z16" s="27">
+      <c r="Z16" s="23">
         <v>23993</v>
       </c>
-      <c r="AA16" s="26">
+      <c r="AA16" s="27">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AB16" s="28">
+      <c r="AB16" s="22">
         <v>6576</v>
       </c>
-      <c r="AC16" s="12">
+      <c r="AC16" s="22">
         <v>30.6</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AD16" s="23">
         <v>3.2</v>
       </c>
-      <c r="AE16" s="26">
+      <c r="AE16" s="27">
         <v>5.4</v>
       </c>
-      <c r="AF16" s="12">
+      <c r="AF16" s="22">
         <v>35.43</v>
       </c>
-      <c r="AG16" s="12">
+      <c r="AG16" s="22">
         <v>3.2</v>
       </c>
-      <c r="AH16" s="20">
+      <c r="AH16" s="23">
         <v>60.3</v>
       </c>
-      <c r="AI16" s="26">
+      <c r="AI16" s="27">
         <v>6.2</v>
       </c>
-      <c r="AJ16" s="20">
+      <c r="AJ16" s="23">
         <v>82.8</v>
       </c>
-      <c r="AK16" s="26">
+      <c r="AK16" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL16" s="20">
+      <c r="AL16" s="23">
         <v>56.3</v>
       </c>
+      <c r="AM16" s="28"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="21">
         <v>80.099999999999994</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="22">
         <v>53.02</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="23">
         <v>98.5</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="24">
         <v>3.3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="25">
         <v>44.2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="25">
         <v>0.91</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="25">
         <v>18.3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="25">
         <v>33.299999999999997</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="26">
         <v>69.8</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="21">
         <v>76.2</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="22">
         <v>8.5</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="22">
         <v>34</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="22">
         <v>41.9</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="22">
         <v>12.5</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="23">
         <v>44.3</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="27">
         <v>58.8</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="22">
         <v>12.1</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="23">
         <v>11.1</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="26">
         <v>8.4</v>
       </c>
-      <c r="U17" s="26">
+      <c r="U17" s="27">
         <v>8</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="23">
         <v>30.4</v>
       </c>
-      <c r="W17" s="26">
+      <c r="W17" s="27">
         <v>14.4</v>
       </c>
-      <c r="X17" s="12">
+      <c r="X17" s="22">
         <v>34.6</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="Y17" s="22">
         <v>56.8</v>
       </c>
-      <c r="Z17" s="27">
+      <c r="Z17" s="23">
         <v>38475</v>
       </c>
-      <c r="AA17" s="26">
+      <c r="AA17" s="27">
         <v>0.50700000000000001</v>
       </c>
-      <c r="AB17" s="28">
+      <c r="AB17" s="22">
         <v>10922</v>
       </c>
-      <c r="AC17" s="12">
+      <c r="AC17" s="22">
         <v>27.6</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AD17" s="23">
         <v>1.8</v>
       </c>
-      <c r="AE17" s="26">
+      <c r="AE17" s="27">
         <v>11.8</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17" s="22">
         <v>47.83</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AG17" s="22">
         <v>5</v>
       </c>
-      <c r="AH17" s="20">
+      <c r="AH17" s="23">
         <v>61.5</v>
       </c>
-      <c r="AI17" s="26">
+      <c r="AI17" s="27">
         <v>15.1</v>
       </c>
-      <c r="AJ17" s="20">
+      <c r="AJ17" s="23">
         <v>100</v>
       </c>
-      <c r="AK17" s="26">
+      <c r="AK17" s="27">
         <v>1.2</v>
       </c>
-      <c r="AL17" s="20">
+      <c r="AL17" s="23">
         <v>90.6</v>
       </c>
+      <c r="AM17" s="28"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="21">
         <v>85.9</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="22">
         <v>30.32</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="23">
         <v>92.8</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="24">
         <v>5.5</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="25">
         <v>41.6</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="25">
         <v>6.75</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="25">
         <v>39.700000000000003</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="25">
         <v>62.1</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="26">
         <v>78.5</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="21">
         <v>76</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="22">
         <v>8.4</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="22">
         <v>34.4</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="22">
         <v>41.2</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="22">
         <v>14</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="23">
         <v>31.1</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="27">
         <v>36.9</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="22">
         <v>18.100000000000001</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="23">
         <v>9.1</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="26">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U18" s="26">
+      <c r="U18" s="27">
         <v>8</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="23">
         <v>26.8</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18" s="27">
         <v>11.6</v>
       </c>
-      <c r="X18" s="12">
+      <c r="X18" s="22">
         <v>51.5</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y18" s="22">
         <v>27.9</v>
       </c>
-      <c r="Z18" s="27">
+      <c r="Z18" s="23">
         <v>22260</v>
       </c>
-      <c r="AA18" s="26">
+      <c r="AA18" s="27">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AB18" s="28">
+      <c r="AB18" s="22">
         <v>5707</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="AC18" s="22">
         <v>36</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD18" s="23">
         <v>2.8</v>
       </c>
-      <c r="AE18" s="26">
+      <c r="AE18" s="27">
         <v>14.3</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AF18" s="22">
         <v>53.6</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AG18" s="22">
         <v>4.5</v>
       </c>
-      <c r="AH18" s="20">
+      <c r="AH18" s="23">
         <v>61.5</v>
       </c>
-      <c r="AI18" s="26">
+      <c r="AI18" s="27">
         <v>8.1</v>
       </c>
-      <c r="AJ18" s="20">
+      <c r="AJ18" s="23">
         <v>78.599999999999994</v>
       </c>
-      <c r="AK18" s="26">
+      <c r="AK18" s="27">
         <v>1</v>
       </c>
-      <c r="AL18" s="20">
+      <c r="AL18" s="23">
         <v>68</v>
       </c>
+      <c r="AM18" s="28"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="21">
         <v>86.6</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="22">
         <v>27.55</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="23">
         <v>90.7</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="24">
         <v>1.7</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="25">
         <v>45.9</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="25">
         <v>3.29</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="25">
         <v>36.9</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="25">
         <v>61.3</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="26">
         <v>75.2</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="21">
         <v>75.599999999999994</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="22">
         <v>8.1</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="22">
         <v>31.6</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="22">
         <v>34.9</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="22">
         <v>10.8</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="23">
         <v>31.2</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="27">
         <v>31.5</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="22">
         <v>15.7</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="23">
         <v>8.3000000000000007</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T19" s="26">
         <v>7.9</v>
       </c>
-      <c r="U19" s="26">
+      <c r="U19" s="27">
         <v>7.6</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="23">
         <v>41.6</v>
       </c>
-      <c r="W19" s="26">
+      <c r="W19" s="27">
         <v>20.7</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19" s="22">
         <v>64.400000000000006</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19" s="22">
         <v>47.9</v>
       </c>
-      <c r="Z19" s="27">
+      <c r="Z19" s="23">
         <v>28035</v>
       </c>
-      <c r="AA19" s="26">
+      <c r="AA19" s="27">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AB19" s="28">
+      <c r="AB19" s="22">
         <v>5868</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AC19" s="22">
         <v>42.4</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AD19" s="23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AE19" s="26">
+      <c r="AE19" s="27">
         <v>16.5</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AF19" s="22">
         <v>56.15</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AG19" s="22">
         <v>4</v>
       </c>
-      <c r="AH19" s="20">
+      <c r="AH19" s="23">
         <v>60.3</v>
       </c>
-      <c r="AI19" s="26">
+      <c r="AI19" s="27">
         <v>16.100000000000001</v>
       </c>
-      <c r="AJ19" s="20">
+      <c r="AJ19" s="23">
         <v>70.8</v>
       </c>
-      <c r="AK19" s="26">
+      <c r="AK19" s="27">
         <v>0.9</v>
       </c>
-      <c r="AL19" s="20">
+      <c r="AL19" s="23">
         <v>81.3</v>
       </c>
+      <c r="AM19" s="28"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="21">
         <v>86.7</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="22">
         <v>20.66</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="23">
         <v>70.3</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="24">
         <v>12</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="25">
         <v>56.4</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="25">
         <v>5.78</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="25">
         <v>27.1</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="25">
         <v>57.5</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="26">
         <v>77</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="21">
         <v>73.099999999999994</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="22">
         <v>7.9</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="22">
         <v>28.8</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="22">
         <v>59.4</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="22">
         <v>13.6</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="23">
         <v>49.5</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="27">
         <v>32.5</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="22">
         <v>15.3</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="23">
         <v>7.7</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="26">
         <v>7.7</v>
       </c>
-      <c r="U20" s="26">
+      <c r="U20" s="27">
         <v>7.9</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="23">
         <v>25.7</v>
       </c>
-      <c r="W20" s="26">
+      <c r="W20" s="27">
         <v>70.8</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20" s="22">
         <v>48.9</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20" s="22">
         <v>40.6</v>
       </c>
-      <c r="Z20" s="27">
+      <c r="Z20" s="23">
         <v>31344</v>
       </c>
-      <c r="AA20" s="26">
+      <c r="AA20" s="27">
         <v>0.48899999999999999</v>
       </c>
-      <c r="AB20" s="28">
+      <c r="AB20" s="22">
         <v>4595</v>
       </c>
-      <c r="AC20" s="12">
+      <c r="AC20" s="22">
         <v>64.400000000000006</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AD20" s="23">
         <v>23</v>
       </c>
-      <c r="AE20" s="26">
+      <c r="AE20" s="27">
         <v>18.100000000000001</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AF20" s="22">
         <v>79.040000000000006</v>
       </c>
-      <c r="AG20" s="12">
+      <c r="AG20" s="22">
         <v>2</v>
       </c>
-      <c r="AH20" s="20">
+      <c r="AH20" s="23">
         <v>58.3</v>
       </c>
-      <c r="AI20" s="26">
+      <c r="AI20" s="27">
         <v>11</v>
       </c>
-      <c r="AJ20" s="20">
+      <c r="AJ20" s="23">
         <v>43.5</v>
       </c>
-      <c r="AK20" s="26">
+      <c r="AK20" s="27">
         <v>0.7</v>
       </c>
-      <c r="AL20" s="20">
+      <c r="AL20" s="23">
         <v>47</v>
       </c>
+      <c r="AM20" s="28"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="21">
         <v>85.6</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="22">
         <v>25.62</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="23">
         <v>86.8</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="24">
         <v>9.1</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="25">
         <v>45.4</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="25">
         <v>3.98</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="25">
         <v>30.5</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="25">
         <v>64.099999999999994</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="26">
         <v>72.099999999999994</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="21">
         <v>74.599999999999994</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="22">
         <v>8.1</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="22">
         <v>28.4</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="22">
         <v>37.5</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="22">
         <v>13.1</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="23">
         <v>32.299999999999997</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="27">
         <v>35.200000000000003</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="22">
         <v>16.8</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="23">
         <v>8.6999999999999993</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="26">
         <v>8</v>
       </c>
-      <c r="U21" s="26">
+      <c r="U21" s="27">
         <v>7.6</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V21" s="23">
         <v>32.9</v>
       </c>
-      <c r="W21" s="26">
+      <c r="W21" s="27">
         <v>7.4</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="22">
         <v>61.1</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21" s="22">
         <v>41</v>
       </c>
-      <c r="Z21" s="27">
+      <c r="Z21" s="23">
         <v>19245</v>
       </c>
-      <c r="AA21" s="26">
+      <c r="AA21" s="27">
         <v>0.504</v>
       </c>
-      <c r="AB21" s="28">
+      <c r="AB21" s="22">
         <v>5606</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AC21" s="22">
         <v>50.6</v>
       </c>
-      <c r="AD21" s="20">
+      <c r="AD21" s="23">
         <v>8</v>
       </c>
-      <c r="AE21" s="26">
+      <c r="AE21" s="27">
         <v>21.4</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AF21" s="22">
         <v>72.77</v>
       </c>
-      <c r="AG21" s="12">
+      <c r="AG21" s="22">
         <v>3.1</v>
       </c>
-      <c r="AH21" s="20">
+      <c r="AH21" s="23">
         <v>58</v>
       </c>
-      <c r="AI21" s="26">
+      <c r="AI21" s="27">
         <v>13.7</v>
       </c>
-      <c r="AJ21" s="20">
+      <c r="AJ21" s="23">
         <v>27.9</v>
       </c>
-      <c r="AK21" s="26">
+      <c r="AK21" s="27">
         <v>0.9</v>
       </c>
-      <c r="AL21" s="20">
+      <c r="AL21" s="23">
         <v>75.400000000000006</v>
       </c>
+      <c r="AM21" s="28"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="21">
         <v>82.4</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="22">
         <v>41.39</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="23">
         <v>97.1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="24">
         <v>3.5</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="25">
         <v>52.9</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="25">
         <v>5.92</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="25">
         <v>27.9</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="25">
         <v>56.3</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="26">
         <v>78.900000000000006</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="21">
         <v>75.7</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="22">
         <v>8.1</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="22">
         <v>33.799999999999997</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="22">
         <v>22.4</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="22">
         <v>10.6</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="23">
         <v>24.7</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="27">
         <v>39.799999999999997</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="22">
         <v>2.8</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="23">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="26">
         <v>7.8</v>
       </c>
-      <c r="U22" s="26">
+      <c r="U22" s="27">
         <v>7.7</v>
       </c>
-      <c r="V22" s="20">
+      <c r="V22" s="23">
         <v>19</v>
       </c>
-      <c r="W22" s="26">
+      <c r="W22" s="27">
         <v>16.100000000000001</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="22">
         <v>67</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Y22" s="22">
         <v>42.8</v>
       </c>
-      <c r="Z22" s="27">
+      <c r="Z22" s="23">
         <v>33800</v>
       </c>
-      <c r="AA22" s="26">
+      <c r="AA22" s="27">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AB22" s="28">
+      <c r="AB22" s="22">
         <v>7724</v>
       </c>
-      <c r="AC22" s="12">
+      <c r="AC22" s="22">
         <v>31.8</v>
       </c>
-      <c r="AD22" s="20">
+      <c r="AD22" s="23">
         <v>1.8</v>
       </c>
-      <c r="AE22" s="26">
+      <c r="AE22" s="27">
         <v>7.1</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AF22" s="22">
         <v>49.81</v>
       </c>
-      <c r="AG22" s="12">
+      <c r="AG22" s="22">
         <v>3.7</v>
       </c>
-      <c r="AH22" s="20">
+      <c r="AH22" s="23">
         <v>61.8</v>
       </c>
-      <c r="AI22" s="26">
+      <c r="AI22" s="27">
         <v>12.2</v>
       </c>
-      <c r="AJ22" s="20">
+      <c r="AJ22" s="23">
         <v>81</v>
       </c>
-      <c r="AK22" s="26">
+      <c r="AK22" s="27">
         <v>1</v>
       </c>
-      <c r="AL22" s="20">
+      <c r="AL22" s="23">
         <v>88.3</v>
       </c>
+      <c r="AM22" s="28"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="21">
         <v>84.5</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="22">
         <v>33.35</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="23">
         <v>92.1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="24">
         <v>3.4</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="25">
         <v>50.5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="25">
         <v>1.92</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="25">
         <v>22.7</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="25">
         <v>46</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="26">
         <v>74.5</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="21">
         <v>75.400000000000006</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="22">
         <v>27.8</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="22">
         <v>36.1</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="22">
         <v>14.3</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="23">
         <v>30.9</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="27">
         <v>42.8</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="22">
         <v>15.3</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="23">
         <v>9.5</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T23" s="26">
         <v>7.9</v>
       </c>
-      <c r="U23" s="26">
+      <c r="U23" s="27">
         <v>7.7</v>
       </c>
-      <c r="V23" s="20">
+      <c r="V23" s="23">
         <v>33.9</v>
       </c>
-      <c r="W23" s="26">
+      <c r="W23" s="27">
         <v>16.100000000000001</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="22">
         <v>39.700000000000003</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Y23" s="22">
         <v>67</v>
       </c>
-      <c r="Z23" s="27">
+      <c r="Z23" s="23">
         <v>45795</v>
       </c>
-      <c r="AA23" s="26">
+      <c r="AA23" s="27">
         <v>0.46100000000000002</v>
       </c>
-      <c r="AB23" s="28">
+      <c r="AB23" s="22">
         <v>6342</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AC23" s="22">
         <v>47.9</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AD23" s="23">
         <v>6.1</v>
       </c>
-      <c r="AE23" s="26">
+      <c r="AE23" s="27">
         <v>15.5</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AF23" s="22">
         <v>56.89</v>
       </c>
-      <c r="AG23" s="12">
+      <c r="AG23" s="22">
         <v>5.2</v>
       </c>
-      <c r="AH23" s="20">
+      <c r="AH23" s="23">
         <v>59.1</v>
       </c>
-      <c r="AI23" s="26">
+      <c r="AI23" s="27">
         <v>15.7</v>
       </c>
-      <c r="AJ23" s="20">
+      <c r="AJ23" s="23">
         <v>57.5</v>
       </c>
-      <c r="AK23" s="26">
+      <c r="AK23" s="27">
         <v>1</v>
       </c>
-      <c r="AL23" s="20">
+      <c r="AL23" s="23">
         <v>82.7</v>
       </c>
+      <c r="AM23" s="28"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="21">
         <v>77.2</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="22">
         <v>23.68</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="23">
         <v>85.4</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="24">
         <v>7.9</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="25">
         <v>54.9</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="25">
         <v>31</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="25">
         <v>60.1</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="26">
         <v>73.3</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="21">
         <v>74.900000000000006</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="22">
         <v>7.8</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="22">
         <v>31.1</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="22">
         <v>36.700000000000003</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="22">
         <v>12.4</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="23">
         <v>34.299999999999997</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="27">
         <v>30.3</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="22">
         <v>11.2</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="23">
         <v>7.9</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T24" s="26">
         <v>7.6</v>
       </c>
-      <c r="U24" s="26">
+      <c r="U24" s="27">
         <v>7.5</v>
       </c>
-      <c r="V24" s="20">
+      <c r="V24" s="23">
         <v>23.1</v>
       </c>
-      <c r="W24" s="26">
+      <c r="W24" s="27">
         <v>28.9</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24" s="22">
         <v>53.3</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="Y24" s="22">
         <v>33.4</v>
       </c>
-      <c r="Z24" s="27">
+      <c r="Z24" s="23">
         <v>19784</v>
       </c>
-      <c r="AA24" s="26">
+      <c r="AA24" s="27">
         <v>0.45200000000000001</v>
       </c>
-      <c r="AB24" s="28">
+      <c r="AB24" s="22">
         <v>5080</v>
       </c>
-      <c r="AC24" s="12">
+      <c r="AC24" s="22">
         <v>55.3</v>
       </c>
-      <c r="AD24" s="20">
+      <c r="AD24" s="23">
         <v>9.4</v>
       </c>
-      <c r="AE24" s="26">
+      <c r="AE24" s="27">
         <v>12.5</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AF24" s="22">
         <v>72.069999999999993</v>
       </c>
-      <c r="AG24" s="12">
+      <c r="AG24" s="22">
         <v>2.7</v>
       </c>
-      <c r="AH24" s="20">
+      <c r="AH24" s="23">
         <v>60</v>
       </c>
-      <c r="AI24" s="26">
+      <c r="AI24" s="27">
         <v>13.9</v>
       </c>
-      <c r="AJ24" s="20">
+      <c r="AJ24" s="23">
         <v>40.1</v>
       </c>
-      <c r="AK24" s="26">
+      <c r="AK24" s="27">
         <v>0.9</v>
       </c>
-      <c r="AL24" s="20">
+      <c r="AL24" s="23">
         <v>66.7</v>
       </c>
+      <c r="AM24" s="28"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="21">
         <v>85</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="22">
         <v>38.44</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="23">
         <v>90</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="24">
         <v>8.5</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="25">
         <v>55.3</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="25">
         <v>3.04</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="25">
         <v>19.100000000000001</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="25">
         <v>53.5</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="26">
         <v>77.599999999999994</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="21">
         <v>75.900000000000006</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="22">
         <v>7.9</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="22">
         <v>30.2</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="22">
         <v>44.5</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="22">
         <v>11.7</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="23">
         <v>36.6</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="27">
         <v>40.9</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="22">
         <v>19.100000000000001</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="23">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="26">
         <v>7.7</v>
       </c>
-      <c r="U25" s="26">
+      <c r="U25" s="27">
         <v>7.5</v>
       </c>
-      <c r="V25" s="20">
+      <c r="V25" s="23">
         <v>29.2</v>
       </c>
-      <c r="W25" s="26">
+      <c r="W25" s="27">
         <v>33.200000000000003</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="22">
         <v>39.6</v>
       </c>
-      <c r="Y25" s="12">
+      <c r="Y25" s="22">
         <v>53.6</v>
       </c>
-      <c r="Z25" s="27">
+      <c r="Z25" s="23">
         <v>29139</v>
       </c>
-      <c r="AA25" s="26">
+      <c r="AA25" s="27">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AB25" s="28">
+      <c r="AB25" s="22">
         <v>5769</v>
       </c>
-      <c r="AC25" s="12">
+      <c r="AC25" s="22">
         <v>49.5</v>
       </c>
-      <c r="AD25" s="20">
+      <c r="AD25" s="23">
         <v>5.9</v>
       </c>
-      <c r="AE25" s="26">
+      <c r="AE25" s="27">
         <v>10.8</v>
       </c>
-      <c r="AF25" s="12">
+      <c r="AF25" s="22">
         <v>67.33</v>
       </c>
-      <c r="AG25" s="12">
+      <c r="AG25" s="22">
         <v>2.6</v>
       </c>
-      <c r="AH25" s="20">
+      <c r="AH25" s="23">
         <v>56.3</v>
       </c>
-      <c r="AI25" s="26">
+      <c r="AI25" s="27">
         <v>26.2</v>
       </c>
-      <c r="AJ25" s="20">
+      <c r="AJ25" s="23">
         <v>29.2</v>
       </c>
-      <c r="AK25" s="26">
+      <c r="AK25" s="27">
         <v>1</v>
       </c>
-      <c r="AL25" s="20">
+      <c r="AL25" s="23">
         <v>77.900000000000006</v>
       </c>
+      <c r="AM25" s="28"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="21">
         <v>85</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="22">
         <v>35.85</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="23">
         <v>90.1</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="24">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="25">
         <v>41.8</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="25">
         <v>10.72</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="25">
         <v>39.299999999999997</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="25">
         <v>68.400000000000006</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="26">
         <v>80.099999999999994</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="21">
         <v>75.400000000000006</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="22">
         <v>8.1</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="22">
         <v>32.299999999999997</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="22">
         <v>36.1</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="22">
         <v>9.9</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="23">
         <v>66.900000000000006</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="27">
         <v>40.799999999999997</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="22">
         <v>3</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="23">
         <v>9.1</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="26">
         <v>7.9</v>
       </c>
-      <c r="U26" s="26">
+      <c r="U26" s="27">
         <v>8</v>
       </c>
-      <c r="V26" s="20">
+      <c r="V26" s="23">
         <v>24.9</v>
       </c>
-      <c r="W26" s="26">
+      <c r="W26" s="27">
         <v>12</v>
       </c>
-      <c r="X26" s="12">
+      <c r="X26" s="22">
         <v>66.8</v>
       </c>
-      <c r="Y26" s="12">
+      <c r="Y26" s="22">
         <v>22.3</v>
       </c>
-      <c r="Z26" s="27">
+      <c r="Z26" s="23">
         <v>19941</v>
       </c>
-      <c r="AA26" s="26">
+      <c r="AA26" s="27">
         <v>0.47099999999999997</v>
       </c>
-      <c r="AB26" s="28">
+      <c r="AB26" s="22">
         <v>6627</v>
       </c>
-      <c r="AC26" s="12">
+      <c r="AC26" s="22">
         <v>37.5</v>
       </c>
-      <c r="AD26" s="20">
+      <c r="AD26" s="23">
         <v>7.9</v>
       </c>
-      <c r="AE26" s="26">
+      <c r="AE26" s="27">
         <v>12.2</v>
       </c>
-      <c r="AF26" s="12">
+      <c r="AF26" s="22">
         <v>62.86</v>
       </c>
-      <c r="AG26" s="12">
+      <c r="AG26" s="22">
         <v>4</v>
       </c>
-      <c r="AH26" s="20">
+      <c r="AH26" s="23">
         <v>64.099999999999994</v>
       </c>
-      <c r="AI26" s="26">
+      <c r="AI26" s="27">
         <v>6.1</v>
       </c>
-      <c r="AJ26" s="20">
+      <c r="AJ26" s="23">
         <v>56.3</v>
       </c>
-      <c r="AK26" s="26">
+      <c r="AK26" s="27">
         <v>1</v>
       </c>
-      <c r="AL26" s="20">
+      <c r="AL26" s="23">
         <v>75.900000000000006</v>
       </c>
+      <c r="AM26" s="28"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="21">
         <v>86.7</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="22">
         <v>55.1</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="23">
         <v>97.6</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="25">
         <v>58.7</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="25">
         <v>6.87</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="25">
         <v>43.9</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="25">
         <v>65.900000000000006</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="26">
         <v>83.3</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="21">
         <v>76.7</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="22">
         <v>8.4</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="22">
         <v>39.5</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="22">
         <v>14.8</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="22">
         <v>9.9</v>
       </c>
-      <c r="P27" s="20">
+      <c r="P27" s="23">
         <v>23.5</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="27">
         <v>47</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="22">
         <v>17.399999999999999</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="23">
         <v>10.199999999999999</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="26">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U27" s="26">
+      <c r="U27" s="27">
         <v>8</v>
       </c>
-      <c r="V27" s="20">
+      <c r="V27" s="23">
         <v>21.4</v>
       </c>
-      <c r="W27" s="26">
+      <c r="W27" s="27">
         <v>12.1</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="22">
         <v>70.099999999999994</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Y27" s="22">
         <v>38.1</v>
       </c>
-      <c r="Z27" s="27">
+      <c r="Z27" s="23">
         <v>25203</v>
       </c>
-      <c r="AA27" s="26">
+      <c r="AA27" s="27">
         <v>0.45300000000000001</v>
       </c>
-      <c r="AB27" s="28">
+      <c r="AB27" s="22">
         <v>9748</v>
       </c>
-      <c r="AC27" s="12">
+      <c r="AC27" s="22">
         <v>14.2</v>
       </c>
-      <c r="AD27" s="20">
+      <c r="AD27" s="23">
         <v>0.6</v>
       </c>
-      <c r="AE27" s="26">
+      <c r="AE27" s="27">
         <v>4.8</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27" s="22">
         <v>36.32</v>
       </c>
-      <c r="AG27" s="12">
+      <c r="AG27" s="22">
         <v>4.3</v>
       </c>
-      <c r="AH27" s="20">
+      <c r="AH27" s="23">
         <v>61.3</v>
       </c>
-      <c r="AI27" s="26">
+      <c r="AI27" s="27">
         <v>9.4</v>
       </c>
-      <c r="AJ27" s="20">
+      <c r="AJ27" s="23">
         <v>97.6</v>
       </c>
-      <c r="AK27" s="26">
+      <c r="AK27" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL27" s="20">
+      <c r="AL27" s="23">
         <v>87.9</v>
       </c>
+      <c r="AM27" s="28"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="21">
         <v>84.1</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="22">
         <v>14</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="23">
         <v>60.2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="24">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="25">
         <v>36.4</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="25">
         <v>7.33</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="25">
         <v>23.7</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="25">
         <v>59.4</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="26">
         <v>74.900000000000006</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="21">
         <v>73.2</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="22">
         <v>7.7</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="22">
         <v>39.5</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="22">
         <v>50.4</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="22">
         <v>12.9</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="23">
         <v>48.6</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="27">
         <v>27.7</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="22">
         <v>14.4</v>
       </c>
-      <c r="S28" s="20">
+      <c r="S28" s="23">
         <v>7.5</v>
       </c>
-      <c r="T28" s="23">
+      <c r="T28" s="26">
         <v>7.5</v>
       </c>
-      <c r="U28" s="26">
+      <c r="U28" s="27">
         <v>7.4</v>
       </c>
-      <c r="V28" s="20">
+      <c r="V28" s="23">
         <v>31.4</v>
       </c>
-      <c r="W28" s="26">
+      <c r="W28" s="27">
         <v>19.3</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="22">
         <v>58.3</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Y28" s="22">
         <v>35.5</v>
       </c>
-      <c r="Z28" s="27">
+      <c r="Z28" s="23">
         <v>18382</v>
       </c>
-      <c r="AA28" s="26">
+      <c r="AA28" s="27">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AB28" s="28">
+      <c r="AB28" s="22">
         <v>4089</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC28" s="22">
         <v>70.400000000000006</v>
       </c>
-      <c r="AD28" s="20">
+      <c r="AD28" s="23">
         <v>26.9</v>
       </c>
-      <c r="AE28" s="26">
+      <c r="AE28" s="27">
         <v>21</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AF28" s="22">
         <v>82.02</v>
       </c>
-      <c r="AG28" s="12">
+      <c r="AG28" s="22">
         <v>2</v>
       </c>
-      <c r="AH28" s="20">
+      <c r="AH28" s="23">
         <v>58.4</v>
       </c>
-      <c r="AI28" s="26">
+      <c r="AI28" s="27">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AJ28" s="20">
+      <c r="AJ28" s="23">
         <v>1.5</v>
       </c>
-      <c r="AK28" s="26">
+      <c r="AK28" s="27">
         <v>0.8</v>
       </c>
-      <c r="AL28" s="20">
+      <c r="AL28" s="23">
         <v>43.2</v>
       </c>
+      <c r="AM28" s="28"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="21">
         <v>82.6</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="22">
         <v>23.84</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="23">
         <v>84.2</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="24">
         <v>3.5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="25">
         <v>41.7</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="25">
         <v>3.33</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="25">
         <v>24.5</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="25">
         <v>53.9</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="26">
         <v>74.099999999999994</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="21">
         <v>75</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="22">
         <v>8.1</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="22">
         <v>31.5</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="22">
         <v>31.8</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="22">
         <v>14.3</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P29" s="23">
         <v>32.299999999999997</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="27">
         <v>35.5</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="22">
         <v>9.6</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="23">
         <v>8.5</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="26">
         <v>7.6</v>
       </c>
-      <c r="U29" s="26">
+      <c r="U29" s="27">
         <v>7.3</v>
       </c>
-      <c r="V29" s="20">
+      <c r="V29" s="23">
         <v>29.5</v>
       </c>
-      <c r="W29" s="26">
+      <c r="W29" s="27">
         <v>11.7</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="22">
         <v>50.1</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y29" s="22">
         <v>51.2</v>
       </c>
-      <c r="Z29" s="27">
+      <c r="Z29" s="23">
         <v>22959</v>
       </c>
-      <c r="AA29" s="26">
+      <c r="AA29" s="27">
         <v>0.57199999999999995</v>
       </c>
-      <c r="AB29" s="28">
+      <c r="AB29" s="22">
         <v>4741</v>
       </c>
-      <c r="AC29" s="12">
+      <c r="AC29" s="22">
         <v>59.4</v>
       </c>
-      <c r="AD29" s="20">
+      <c r="AD29" s="23">
         <v>9</v>
       </c>
-      <c r="AE29" s="26">
+      <c r="AE29" s="27">
         <v>20.3</v>
       </c>
-      <c r="AF29" s="12">
+      <c r="AF29" s="22">
         <v>73.47</v>
       </c>
-      <c r="AG29" s="12">
+      <c r="AG29" s="22">
         <v>3</v>
       </c>
-      <c r="AH29" s="20">
+      <c r="AH29" s="23">
         <v>60.4</v>
       </c>
-      <c r="AI29" s="26">
+      <c r="AI29" s="27">
         <v>13.7</v>
       </c>
-      <c r="AJ29" s="20">
+      <c r="AJ29" s="23">
         <v>80.5</v>
       </c>
-      <c r="AK29" s="26">
+      <c r="AK29" s="27">
         <v>0.9</v>
       </c>
-      <c r="AL29" s="20">
+      <c r="AL29" s="23">
         <v>70.2</v>
       </c>
+      <c r="AM29" s="28"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="21">
         <v>86.8</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="22">
         <v>32.299999999999997</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="23">
         <v>92.9</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="24">
         <v>5.6</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="25">
         <v>57.5</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="25">
         <v>6.18</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="25">
         <v>29.4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="25">
         <v>54.9</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="26">
         <v>81.7</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="21">
         <v>75.5</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="22">
         <v>8.5</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="22">
         <v>25.4</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="22">
         <v>35</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="22">
         <v>11</v>
       </c>
-      <c r="P30" s="20">
+      <c r="P30" s="23">
         <v>14.9</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="27">
         <v>42</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="22">
         <v>13.1</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S30" s="23">
         <v>9.5</v>
       </c>
-      <c r="T30" s="23">
+      <c r="T30" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U30" s="26">
+      <c r="U30" s="27">
         <v>7.8</v>
       </c>
-      <c r="V30" s="20">
+      <c r="V30" s="23">
         <v>30.7</v>
       </c>
-      <c r="W30" s="26">
+      <c r="W30" s="27">
         <v>6.7</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="22">
         <v>61.5</v>
       </c>
-      <c r="Y30" s="12">
+      <c r="Y30" s="22">
         <v>46.5</v>
       </c>
-      <c r="Z30" s="27">
+      <c r="Z30" s="23">
         <v>28128</v>
       </c>
-      <c r="AA30" s="26">
+      <c r="AA30" s="27">
         <v>0.48799999999999999</v>
       </c>
-      <c r="AB30" s="28">
+      <c r="AB30" s="22">
         <v>7891</v>
       </c>
-      <c r="AC30" s="12">
+      <c r="AC30" s="22">
         <v>31.1</v>
       </c>
-      <c r="AD30" s="20">
+      <c r="AD30" s="23">
         <v>2.9</v>
       </c>
-      <c r="AE30" s="26">
+      <c r="AE30" s="27">
         <v>6.7</v>
       </c>
-      <c r="AF30" s="12">
+      <c r="AF30" s="22">
         <v>43.92</v>
       </c>
-      <c r="AG30" s="12">
+      <c r="AG30" s="22">
         <v>4.5</v>
       </c>
-      <c r="AH30" s="20">
+      <c r="AH30" s="23">
         <v>54.1</v>
       </c>
-      <c r="AI30" s="26">
+      <c r="AI30" s="27">
         <v>16.3</v>
       </c>
-      <c r="AJ30" s="20">
+      <c r="AJ30" s="23">
         <v>73.7</v>
       </c>
-      <c r="AK30" s="26">
+      <c r="AK30" s="27">
         <v>1</v>
       </c>
-      <c r="AL30" s="20">
+      <c r="AL30" s="23">
         <v>83.6</v>
       </c>
+      <c r="AM30" s="28"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="21">
         <v>82.4</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="22">
         <v>46.71</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="23">
         <v>93.4</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="24">
         <v>9</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="25">
         <v>39.9</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="25">
         <v>4.91</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="25">
         <v>23.8</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="25">
         <v>56.6</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="26">
         <v>81</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="21">
         <v>75.8</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="22">
         <v>37</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="22">
         <v>46.2</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="22">
         <v>11.6</v>
       </c>
-      <c r="P31" s="20">
+      <c r="P31" s="23">
         <v>20.7</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31" s="27">
         <v>44.4</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="22">
         <v>8.4</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S31" s="23">
         <v>9.6</v>
       </c>
-      <c r="T31" s="23">
+      <c r="T31" s="26">
         <v>8</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31" s="27">
         <v>7.7</v>
       </c>
-      <c r="V31" s="20">
+      <c r="V31" s="23">
         <v>32</v>
       </c>
-      <c r="W31" s="26">
+      <c r="W31" s="27">
         <v>11.8</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31" s="22">
         <v>50.6</v>
       </c>
-      <c r="Y31" s="12">
+      <c r="Y31" s="22">
         <v>42.9</v>
       </c>
-      <c r="Z31" s="27">
+      <c r="Z31" s="23">
         <v>29321</v>
       </c>
-      <c r="AA31" s="26">
+      <c r="AA31" s="27">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AB31" s="28">
+      <c r="AB31" s="22">
         <v>7742</v>
       </c>
-      <c r="AC31" s="12">
+      <c r="AC31" s="22">
         <v>28.8</v>
       </c>
-      <c r="AD31" s="20">
+      <c r="AD31" s="23">
         <v>4.2</v>
       </c>
-      <c r="AE31" s="26">
+      <c r="AE31" s="27">
         <v>10.4</v>
       </c>
-      <c r="AF31" s="12">
+      <c r="AF31" s="22">
         <v>47.7</v>
       </c>
-      <c r="AG31" s="12">
+      <c r="AG31" s="22">
         <v>3.2</v>
       </c>
-      <c r="AH31" s="20">
+      <c r="AH31" s="23">
         <v>67.3</v>
       </c>
-      <c r="AI31" s="26">
+      <c r="AI31" s="27">
         <v>3.7</v>
       </c>
-      <c r="AJ31" s="20">
+      <c r="AJ31" s="23">
         <v>74.400000000000006</v>
       </c>
-      <c r="AK31" s="26">
+      <c r="AK31" s="27">
         <v>0.8</v>
       </c>
-      <c r="AL31" s="20">
+      <c r="AL31" s="23">
         <v>82.4</v>
       </c>
+      <c r="AM31" s="28"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="21">
         <v>90.9</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="22">
         <v>27.18</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="23">
         <v>82.8</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="24">
         <v>7</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="25">
         <v>57.4</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="25">
         <v>5.61</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="25">
         <v>38.1</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="25">
         <v>65.5</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="26">
         <v>76</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="21">
         <v>74.900000000000006</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="22">
         <v>28.8</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="22">
         <v>31.8</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="22">
         <v>12.1</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="23">
         <v>30.1</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="27">
         <v>36.4</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="22">
         <v>10.8</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="T32" s="23">
+      <c r="T32" s="26">
         <v>8</v>
       </c>
-      <c r="U32" s="26">
+      <c r="U32" s="27">
         <v>7.6</v>
       </c>
-      <c r="V32" s="20">
+      <c r="V32" s="23">
         <v>22.6</v>
       </c>
-      <c r="W32" s="26">
+      <c r="W32" s="27">
         <v>11.5</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="22">
         <v>50.2</v>
       </c>
-      <c r="Y32" s="12">
+      <c r="Y32" s="22">
         <v>36.299999999999997</v>
       </c>
-      <c r="Z32" s="27">
+      <c r="Z32" s="23">
         <v>21280</v>
       </c>
-      <c r="AA32" s="26">
+      <c r="AA32" s="27">
         <v>0.47699999999999998</v>
       </c>
-      <c r="AB32" s="28">
+      <c r="AB32" s="22">
         <v>5613</v>
       </c>
-      <c r="AC32" s="12">
+      <c r="AC32" s="22">
         <v>45.5</v>
       </c>
-      <c r="AD32" s="20">
+      <c r="AD32" s="23">
         <v>7.7</v>
       </c>
-      <c r="AE32" s="26">
+      <c r="AE32" s="27">
         <v>13.7</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AF32" s="22">
         <v>58.58</v>
       </c>
-      <c r="AG32" s="12">
+      <c r="AG32" s="22">
         <v>2.4</v>
       </c>
-      <c r="AH32" s="20">
+      <c r="AH32" s="23">
         <v>58.6</v>
       </c>
-      <c r="AI32" s="26">
+      <c r="AI32" s="27">
         <v>10.4</v>
       </c>
-      <c r="AJ32" s="20">
+      <c r="AJ32" s="23">
         <v>57.8</v>
       </c>
-      <c r="AK32" s="26">
+      <c r="AK32" s="27">
         <v>1</v>
       </c>
-      <c r="AL32" s="20">
+      <c r="AL32" s="23">
         <v>73.7</v>
       </c>
+      <c r="AM32" s="28"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="21">
         <v>87.8</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="22">
         <v>38.15</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="23">
         <v>93.2</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="24">
         <v>6.2</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="25">
         <v>38.5</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="25">
         <v>8.2100000000000009</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="25">
         <v>28.8</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="25">
         <v>63.6</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="26">
         <v>81.599999999999994</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="21">
         <v>75.8</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="22">
         <v>33.9</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="22">
         <v>26.7</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="P33" s="20">
+      <c r="P33" s="23">
         <v>22.1</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="27">
         <v>47</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="22">
         <v>7.8</v>
       </c>
-      <c r="S33" s="20">
+      <c r="S33" s="23">
         <v>9.5</v>
       </c>
-      <c r="T33" s="23">
+      <c r="T33" s="26">
         <v>7.9</v>
       </c>
-      <c r="U33" s="26">
+      <c r="U33" s="27">
         <v>7.9</v>
       </c>
-      <c r="V33" s="20">
+      <c r="V33" s="23">
         <v>20.5</v>
       </c>
-      <c r="W33" s="26">
+      <c r="W33" s="27">
         <v>42.9</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="22">
         <v>55.9</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y33" s="22">
         <v>28.1</v>
       </c>
-      <c r="Z33" s="27">
+      <c r="Z33" s="23">
         <v>20263</v>
       </c>
-      <c r="AA33" s="26">
+      <c r="AA33" s="27">
         <v>0.48599999999999999</v>
       </c>
-      <c r="AB33" s="28">
+      <c r="AB33" s="22">
         <v>7406</v>
       </c>
-      <c r="AC33" s="12">
+      <c r="AC33" s="22">
         <v>30.8</v>
       </c>
-      <c r="AD33" s="20">
+      <c r="AD33" s="23">
         <v>2.9</v>
       </c>
-      <c r="AE33" s="26">
+      <c r="AE33" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AF33" s="12">
+      <c r="AF33" s="22">
         <v>51.41</v>
       </c>
-      <c r="AG33" s="12">
+      <c r="AG33" s="22">
         <v>3.7</v>
       </c>
-      <c r="AH33" s="20">
+      <c r="AH33" s="23">
         <v>61.1</v>
       </c>
-      <c r="AI33" s="26">
+      <c r="AI33" s="27">
         <v>7.4</v>
       </c>
-      <c r="AJ33" s="20">
+      <c r="AJ33" s="23">
         <v>80.2</v>
       </c>
-      <c r="AK33" s="26">
+      <c r="AK33" s="27">
         <v>1</v>
       </c>
-      <c r="AL33" s="20">
+      <c r="AL33" s="23">
         <v>90.1</v>
       </c>
+      <c r="AM33" s="28"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="21">
         <v>85.3</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="22">
         <v>45.94</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="23">
         <v>91.7</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="24">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="25">
         <v>52</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="25">
         <v>7.24</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="25">
         <v>32.9</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="25">
         <v>58.2</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="26">
         <v>83.9</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="21">
         <v>75.5</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="22">
         <v>36.1</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="22">
         <v>40.200000000000003</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="22">
         <v>10.1</v>
       </c>
-      <c r="P34" s="20">
+      <c r="P34" s="23">
         <v>32.200000000000003</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="Q34" s="27">
         <v>46.7</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="22">
         <v>15.1</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="23">
         <v>10</v>
       </c>
-      <c r="T34" s="23">
+      <c r="T34" s="26">
         <v>8</v>
       </c>
-      <c r="U34" s="26">
+      <c r="U34" s="27">
         <v>7.8</v>
       </c>
-      <c r="V34" s="20">
+      <c r="V34" s="23">
         <v>24</v>
       </c>
-      <c r="W34" s="26">
+      <c r="W34" s="27">
         <v>19.3</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34" s="22">
         <v>56.8</v>
       </c>
-      <c r="Y34" s="12">
+      <c r="Y34" s="22">
         <v>40.299999999999997</v>
       </c>
-      <c r="Z34" s="27">
+      <c r="Z34" s="23">
         <v>29587</v>
       </c>
-      <c r="AA34" s="26">
+      <c r="AA34" s="27">
         <v>0.47599999999999998</v>
       </c>
-      <c r="AB34" s="28">
+      <c r="AB34" s="22">
         <v>8800</v>
       </c>
-      <c r="AC34" s="12">
+      <c r="AC34" s="22">
         <v>27.9</v>
       </c>
-      <c r="AD34" s="20">
+      <c r="AD34" s="23">
         <v>2.5</v>
       </c>
-      <c r="AE34" s="26">
+      <c r="AE34" s="27">
         <v>7.5</v>
       </c>
-      <c r="AF34" s="12">
+      <c r="AF34" s="22">
         <v>44.78</v>
       </c>
-      <c r="AG34" s="12">
+      <c r="AG34" s="22">
         <v>5</v>
       </c>
-      <c r="AH34" s="20">
+      <c r="AH34" s="23">
         <v>63.3</v>
       </c>
-      <c r="AI34" s="26">
+      <c r="AI34" s="27">
         <v>6.1</v>
       </c>
-      <c r="AJ34" s="20">
+      <c r="AJ34" s="23">
         <v>48</v>
       </c>
-      <c r="AK34" s="26">
+      <c r="AK34" s="27">
         <v>1</v>
       </c>
-      <c r="AL34" s="20">
+      <c r="AL34" s="23">
         <v>67.2</v>
       </c>
+      <c r="AM34" s="28"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="21">
         <v>86.6</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="22">
         <v>28.65</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="23">
         <v>74.400000000000006</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="24">
         <v>9.6</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="25">
         <v>57</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="25">
         <v>4.4800000000000004</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="25">
         <v>29.7</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="25">
         <v>56.3</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="26">
         <v>82.6</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="21">
         <v>74.900000000000006</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="22">
         <v>7.9</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="22">
         <v>42.7</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="22">
         <v>27.4</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="22">
         <v>14.7</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="23">
         <v>41.7</v>
       </c>
-      <c r="Q35" s="26">
+      <c r="Q35" s="27">
         <v>42.3</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="22">
         <v>12.5</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="T35" s="23">
+      <c r="T35" s="26">
         <v>7.9</v>
       </c>
-      <c r="U35" s="26">
+      <c r="U35" s="27">
         <v>7.7</v>
       </c>
-      <c r="V35" s="20">
+      <c r="V35" s="23">
         <v>35.1</v>
       </c>
-      <c r="W35" s="26">
+      <c r="W35" s="27">
         <v>17.5</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="22">
         <v>41.7</v>
       </c>
-      <c r="Y35" s="12">
+      <c r="Y35" s="22">
         <v>63.8</v>
       </c>
-      <c r="Z35" s="27">
+      <c r="Z35" s="23">
         <v>25910</v>
       </c>
-      <c r="AA35" s="26">
+      <c r="AA35" s="27">
         <v>0.47599999999999998</v>
       </c>
-      <c r="AB35" s="28">
+      <c r="AB35" s="22">
         <v>5928</v>
       </c>
-      <c r="AC35" s="12">
+      <c r="AC35" s="22">
         <v>50.9</v>
       </c>
-      <c r="AD35" s="20">
+      <c r="AD35" s="23">
         <v>11.8</v>
       </c>
-      <c r="AE35" s="26">
+      <c r="AE35" s="27">
         <v>14.6</v>
       </c>
-      <c r="AF35" s="12">
+      <c r="AF35" s="22">
         <v>65.25</v>
       </c>
-      <c r="AG35" s="12">
+      <c r="AG35" s="22">
         <v>7.4</v>
       </c>
-      <c r="AH35" s="20">
+      <c r="AH35" s="23">
         <v>58.4</v>
       </c>
-      <c r="AI35" s="26">
+      <c r="AI35" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AJ35" s="20">
+      <c r="AJ35" s="23">
         <v>34.4</v>
       </c>
-      <c r="AK35" s="26">
+      <c r="AK35" s="27">
         <v>0.9</v>
       </c>
-      <c r="AL35" s="20">
+      <c r="AL35" s="23">
         <v>38.5</v>
       </c>
+      <c r="AM35" s="28"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="21">
         <v>87.2</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="22">
         <v>37.21</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="23">
         <v>92.4</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="24">
         <v>6.8</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="25">
         <v>45.1</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="25">
         <v>6.87</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="25">
         <v>43.8</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="25">
         <v>63.9</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="26">
         <v>82.3</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="21">
         <v>76</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="22">
         <v>8.5</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="22">
         <v>37.1</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="22">
         <v>41.7</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="22">
         <v>12.4</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="23">
         <v>32</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="27">
         <v>42.5</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="22">
         <v>13.1</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S36" s="23">
         <v>9.4</v>
       </c>
-      <c r="T36" s="23">
+      <c r="T36" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="27">
         <v>8.1</v>
       </c>
-      <c r="V36" s="20">
+      <c r="V36" s="23">
         <v>25.3</v>
       </c>
-      <c r="W36" s="26">
+      <c r="W36" s="27">
         <v>22.5</v>
       </c>
-      <c r="X36" s="12">
+      <c r="X36" s="22">
         <v>53.5</v>
       </c>
-      <c r="Y36" s="12">
+      <c r="Y36" s="22">
         <v>41.2</v>
       </c>
-      <c r="Z36" s="27">
+      <c r="Z36" s="23">
         <v>18908</v>
       </c>
-      <c r="AA36" s="26">
+      <c r="AA36" s="27">
         <v>0.47799999999999998</v>
       </c>
-      <c r="AB36" s="28">
+      <c r="AB36" s="22">
         <v>7143</v>
       </c>
-      <c r="AC36" s="12">
+      <c r="AC36" s="22">
         <v>32.200000000000003</v>
       </c>
-      <c r="AD36" s="20">
+      <c r="AD36" s="23">
         <v>2.9</v>
       </c>
-      <c r="AE36" s="26">
+      <c r="AE36" s="27">
         <v>10.6</v>
       </c>
-      <c r="AF36" s="12">
+      <c r="AF36" s="22">
         <v>48.14</v>
       </c>
-      <c r="AG36" s="12">
+      <c r="AG36" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AH36" s="20">
+      <c r="AH36" s="23">
         <v>61.6</v>
       </c>
-      <c r="AI36" s="26">
+      <c r="AI36" s="27">
         <v>6.6</v>
       </c>
-      <c r="AJ36" s="20">
+      <c r="AJ36" s="23">
         <v>71</v>
       </c>
-      <c r="AK36" s="26">
+      <c r="AK36" s="27">
         <v>1</v>
       </c>
-      <c r="AL36" s="20">
+      <c r="AL36" s="23">
         <v>77.2</v>
       </c>
+      <c r="AM36" s="28"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="21">
         <v>87.5</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="22">
         <v>24.75</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="23">
         <v>94.7</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="24">
         <v>9.4</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="25">
         <v>39.4</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="25">
         <v>4.3600000000000003</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="25">
         <v>24.9</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="25">
         <v>58.7</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="26">
         <v>81.599999999999994</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="21">
         <v>75.400000000000006</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="22">
         <v>8.1</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="22">
         <v>30.3</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="22">
         <v>23.2</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="22">
         <v>13.4</v>
       </c>
-      <c r="P37" s="20">
+      <c r="P37" s="23">
         <v>20.100000000000001</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37" s="27">
         <v>39</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="22">
         <v>12.9</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="23">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T37" s="23">
+      <c r="T37" s="26">
         <v>7.8</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37" s="27">
         <v>7.3</v>
       </c>
-      <c r="V37" s="20">
+      <c r="V37" s="23">
         <v>33</v>
       </c>
-      <c r="W37" s="26">
+      <c r="W37" s="27">
         <v>7.3</v>
       </c>
-      <c r="X37" s="12">
+      <c r="X37" s="22">
         <v>52.7</v>
       </c>
-      <c r="Y37" s="12">
+      <c r="Y37" s="22">
         <v>42.9</v>
       </c>
-      <c r="Z37" s="27">
+      <c r="Z37" s="23">
         <v>26905</v>
       </c>
-      <c r="AA37" s="26">
+      <c r="AA37" s="27">
         <v>0.41099999999999998</v>
       </c>
-      <c r="AB37" s="28">
+      <c r="AB37" s="22">
         <v>4892</v>
       </c>
-      <c r="AC37" s="12">
+      <c r="AC37" s="22">
         <v>53.9</v>
       </c>
-      <c r="AD37" s="20">
+      <c r="AD37" s="23">
         <v>5.7</v>
       </c>
-      <c r="AE37" s="26">
+      <c r="AE37" s="27">
         <v>22.1</v>
       </c>
-      <c r="AF37" s="12">
+      <c r="AF37" s="22">
         <v>72.7</v>
       </c>
-      <c r="AG37" s="12">
+      <c r="AG37" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AH37" s="20">
+      <c r="AH37" s="23">
         <v>61.9</v>
       </c>
-      <c r="AI37" s="26">
+      <c r="AI37" s="27">
         <v>11.7</v>
       </c>
-      <c r="AJ37" s="20">
+      <c r="AJ37" s="23">
         <v>87.1</v>
       </c>
-      <c r="AK37" s="26">
+      <c r="AK37" s="27">
         <v>0.9</v>
       </c>
-      <c r="AL37" s="20">
+      <c r="AL37" s="23">
         <v>89.1</v>
       </c>
+      <c r="AM37" s="28"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="21">
         <v>80.599999999999994</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="22">
         <v>21.18</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="23">
         <v>76.8</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="24">
         <v>5</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="25">
         <v>46</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="25">
         <v>4.2</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="25">
         <v>29.3</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="25">
         <v>46.9</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="26">
         <v>77.2</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="21">
         <v>74.2</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="22">
         <v>7.9</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="22">
         <v>31.2</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="22">
         <v>46.4</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="22">
         <v>12.6</v>
       </c>
-      <c r="P38" s="20">
+      <c r="P38" s="23">
         <v>29.9</v>
       </c>
-      <c r="Q38" s="26">
+      <c r="Q38" s="27">
         <v>35.200000000000003</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S38" s="23">
         <v>8.1999999999999993</v>
       </c>
-      <c r="T38" s="23">
+      <c r="T38" s="26">
         <v>7.7</v>
       </c>
-      <c r="U38" s="26">
+      <c r="U38" s="27">
         <v>7.6</v>
       </c>
-      <c r="V38" s="20">
+      <c r="V38" s="23">
         <v>27.2</v>
       </c>
-      <c r="W38" s="26">
+      <c r="W38" s="27">
         <v>12.8</v>
       </c>
-      <c r="X38" s="12">
+      <c r="X38" s="22">
         <v>43.7</v>
       </c>
-      <c r="Y38" s="12">
+      <c r="Y38" s="22">
         <v>44.4</v>
       </c>
-      <c r="Z38" s="27">
+      <c r="Z38" s="23">
         <v>18422</v>
       </c>
-      <c r="AA38" s="26">
+      <c r="AA38" s="27">
         <v>0.49</v>
       </c>
-      <c r="AB38" s="28">
+      <c r="AB38" s="22">
         <v>4923</v>
       </c>
-      <c r="AC38" s="12">
+      <c r="AC38" s="22">
         <v>62.2</v>
       </c>
-      <c r="AD38" s="20">
+      <c r="AD38" s="23">
         <v>16.399999999999999</v>
       </c>
-      <c r="AE38" s="26">
+      <c r="AE38" s="27">
         <v>16.8</v>
       </c>
-      <c r="AF38" s="12">
+      <c r="AF38" s="22">
         <v>69.39</v>
       </c>
-      <c r="AG38" s="12">
+      <c r="AG38" s="22">
         <v>3.6</v>
       </c>
-      <c r="AH38" s="20">
+      <c r="AH38" s="23">
         <v>52.3</v>
       </c>
-      <c r="AI38" s="26">
+      <c r="AI38" s="27">
         <v>11.3</v>
       </c>
-      <c r="AJ38" s="20">
+      <c r="AJ38" s="23">
         <v>37.1</v>
       </c>
-      <c r="AK38" s="26">
+      <c r="AK38" s="27">
         <v>0.9</v>
       </c>
-      <c r="AL38" s="20">
+      <c r="AL38" s="23">
         <v>47.2</v>
       </c>
+      <c r="AM38" s="28"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="21">
         <v>85.6</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="22">
         <v>29.51</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="23">
         <v>89.3</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="24">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="25">
         <v>70.900000000000006</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="25">
         <v>11.2</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="25">
         <v>31.8</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="25">
         <v>63.9</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="26">
         <v>79.2</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="21">
         <v>75.599999999999994</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="22">
         <v>44.8</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="22">
         <v>50.8</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="22">
         <v>11.5</v>
       </c>
-      <c r="P39" s="20">
+      <c r="P39" s="23">
         <v>32.6</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="27">
         <v>38.1</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="22">
         <v>12.9</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S39" s="23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="T39" s="23">
+      <c r="T39" s="26">
         <v>8</v>
       </c>
-      <c r="U39" s="26">
+      <c r="U39" s="27">
         <v>7.8</v>
       </c>
-      <c r="V39" s="20">
+      <c r="V39" s="23">
         <v>30.5</v>
       </c>
-      <c r="W39" s="26">
+      <c r="W39" s="27">
         <v>3</v>
       </c>
-      <c r="X39" s="12">
+      <c r="X39" s="22">
         <v>69.599999999999994</v>
       </c>
-      <c r="Y39" s="12">
+      <c r="Y39" s="22">
         <v>33.4</v>
       </c>
-      <c r="Z39" s="27">
+      <c r="Z39" s="23">
         <v>20491</v>
       </c>
-      <c r="AA39" s="26">
+      <c r="AA39" s="27">
         <v>0.51100000000000001</v>
       </c>
-      <c r="AB39" s="28">
+      <c r="AB39" s="22">
         <v>6914</v>
       </c>
-      <c r="AC39" s="12">
+      <c r="AC39" s="22">
         <v>41.9</v>
       </c>
-      <c r="AD39" s="20">
+      <c r="AD39" s="23">
         <v>6.1</v>
       </c>
-      <c r="AE39" s="26">
+      <c r="AE39" s="27">
         <v>17.3</v>
       </c>
-      <c r="AF39" s="12">
+      <c r="AF39" s="22">
         <v>62.74</v>
       </c>
-      <c r="AG39" s="12">
+      <c r="AG39" s="22">
         <v>2</v>
       </c>
-      <c r="AH39" s="20">
+      <c r="AH39" s="23">
         <v>64</v>
       </c>
-      <c r="AI39" s="26">
+      <c r="AI39" s="27">
         <v>3.4</v>
       </c>
-      <c r="AJ39" s="20">
+      <c r="AJ39" s="23">
         <v>57.8</v>
       </c>
-      <c r="AK39" s="26">
+      <c r="AK39" s="27">
         <v>0.9</v>
       </c>
-      <c r="AL39" s="20">
+      <c r="AL39" s="23">
         <v>86.8</v>
       </c>
+      <c r="AM39" s="28"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="21">
         <v>88.5</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="22">
         <v>25.81</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="23">
         <v>90.8</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="24">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="25">
         <v>45.5</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="25">
         <v>6.41</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="25">
         <v>45</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="25">
         <v>66.8</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="26">
         <v>80.5</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="21">
         <v>75.5</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="22">
         <v>8.1</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="22">
         <v>30.3</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="22">
         <v>44.2</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="22">
         <v>11.7</v>
       </c>
-      <c r="P40" s="20">
+      <c r="P40" s="23">
         <v>32.6</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q40" s="27">
         <v>31.4</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R40" s="22">
         <v>11.2</v>
       </c>
-      <c r="S40" s="20">
+      <c r="S40" s="23">
         <v>8.6</v>
       </c>
-      <c r="T40" s="23">
+      <c r="T40" s="26">
         <v>8.1</v>
       </c>
-      <c r="U40" s="26">
+      <c r="U40" s="27">
         <v>7.9</v>
       </c>
-      <c r="V40" s="20">
+      <c r="V40" s="23">
         <v>30.5</v>
       </c>
-      <c r="W40" s="26">
+      <c r="W40" s="27">
         <v>36.1</v>
       </c>
-      <c r="X40" s="12">
+      <c r="X40" s="22">
         <v>62.6</v>
       </c>
-      <c r="Y40" s="12">
+      <c r="Y40" s="22">
         <v>38.200000000000003</v>
       </c>
-      <c r="Z40" s="27">
+      <c r="Z40" s="23">
         <v>17635</v>
       </c>
-      <c r="AA40" s="26">
+      <c r="AA40" s="27">
         <v>0.50700000000000001</v>
       </c>
-      <c r="AB40" s="28">
+      <c r="AB40" s="22">
         <v>5228</v>
       </c>
-      <c r="AC40" s="12">
+      <c r="AC40" s="22">
         <v>49</v>
       </c>
-      <c r="AD40" s="20">
+      <c r="AD40" s="23">
         <v>3.5</v>
       </c>
-      <c r="AE40" s="26">
+      <c r="AE40" s="27">
         <v>14.2</v>
       </c>
-      <c r="AF40" s="12">
+      <c r="AF40" s="22">
         <v>63.25</v>
       </c>
-      <c r="AG40" s="12">
+      <c r="AG40" s="22">
         <v>2.8</v>
       </c>
-      <c r="AH40" s="20">
+      <c r="AH40" s="23">
         <v>56</v>
       </c>
-      <c r="AI40" s="26">
+      <c r="AI40" s="27">
         <v>7.2</v>
       </c>
-      <c r="AJ40" s="20">
+      <c r="AJ40" s="23">
         <v>53.4</v>
       </c>
-      <c r="AK40" s="26">
+      <c r="AK40" s="27">
         <v>1</v>
       </c>
-      <c r="AL40" s="20">
+      <c r="AL40" s="23">
         <v>73</v>
       </c>
+      <c r="AM40" s="28"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="AA6:AD6"/>
     <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="AI6:AJ6"/>
@@ -4849,9 +4883,6 @@
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
